--- a/Sonia_IndiaLab_English_20200707.xlsx
+++ b/Sonia_IndiaLab_English_20200707.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB8631E-F111-40E9-A541-9A12521430FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="548">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2415,8 +2421,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2878,25 +2884,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3007,7 +3013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3039,9 +3045,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3073,6 +3097,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3248,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3262,7 +3304,7 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3270,7 +3312,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3282,7 +3324,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3338,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="52" t="s">
         <v>14</v>
@@ -3308,7 +3350,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -3316,7 +3358,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="52" t="s">
         <v>9</v>
@@ -3328,7 +3370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -3336,7 +3378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3348,7 +3390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3360,7 +3402,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3372,7 +3414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3384,7 +3426,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3396,7 +3438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3408,7 +3450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>1</v>
       </c>
@@ -3422,7 +3464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3434,7 +3476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3446,7 +3488,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3458,7 +3500,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3470,7 +3512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3482,7 +3524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3494,7 +3536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3506,7 +3548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3518,7 +3560,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3530,7 +3572,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3542,7 +3584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3554,7 +3596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3566,7 +3608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3578,7 +3620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3590,7 +3632,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3602,7 +3644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3614,7 +3656,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3626,7 +3668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3638,7 +3680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3650,7 +3692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3662,7 +3704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3674,7 +3716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3686,7 +3728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3698,7 +3740,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3710,7 +3752,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3722,7 +3764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3734,7 +3776,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3746,7 +3788,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3758,7 +3800,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3770,7 +3812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3782,7 +3824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3794,7 +3836,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3806,7 +3848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3818,7 +3860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3830,7 +3872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3842,7 +3884,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>2</v>
       </c>
@@ -3856,7 +3898,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3868,7 +3910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3880,7 +3922,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3892,7 +3934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3904,7 +3946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -3916,7 +3958,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -3928,7 +3970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3940,7 +3982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -3952,7 +3994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -3964,7 +4006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -3976,7 +4018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -3988,7 +4030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="52" t="s">
         <v>35</v>
       </c>
@@ -4002,7 +4044,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -4014,7 +4056,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -4026,7 +4068,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="52" t="s">
         <v>36</v>
       </c>
@@ -4040,7 +4082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -4052,7 +4094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -4064,7 +4106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
@@ -4078,27 +4120,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4110,27 +4152,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4142,7 +4184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4154,7 +4196,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="52" t="s">
         <v>127</v>
       </c>
@@ -4168,47 +4210,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4220,7 +4262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4232,7 +4274,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="52" t="s">
         <v>4</v>
       </c>
@@ -4246,27 +4288,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4278,7 +4320,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4290,19 +4332,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4311,14 +4355,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4331,7 +4373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4345,7 +4387,7 @@
       <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -4354,7 +4396,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4367,7 +4409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -4382,9 +4424,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -4395,18 +4437,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="52"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -4417,16 +4459,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
-      <c r="B6" s="59"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="52"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -4439,7 +4481,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -4454,7 +4496,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -4469,7 +4511,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -4482,7 +4524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -4495,7 +4537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -4508,7 +4550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>166</v>
       </c>
@@ -4523,7 +4565,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -4536,7 +4578,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -4549,7 +4591,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -4562,7 +4604,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -4575,7 +4617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -4588,7 +4630,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -4601,7 +4643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -4614,7 +4656,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -4627,7 +4669,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -4640,7 +4682,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -4653,7 +4695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -4666,7 +4708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -4679,7 +4721,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -4692,7 +4734,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -4705,7 +4747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -4718,7 +4760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -4731,7 +4773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -4744,7 +4786,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -4757,7 +4799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -4770,7 +4812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -4783,7 +4825,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -4796,7 +4838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -4809,7 +4851,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -4822,7 +4864,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -4835,7 +4877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -4848,7 +4890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -4861,7 +4903,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -4874,7 +4916,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -4887,7 +4929,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -4902,7 +4944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -4917,7 +4959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -4932,7 +4974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4945,7 +4987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -4958,7 +5000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -4971,7 +5013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -4984,7 +5026,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>175</v>
       </c>
@@ -4999,7 +5041,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -5012,7 +5054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -5025,7 +5067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -5038,7 +5080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -5051,7 +5093,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -5064,7 +5106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -5077,7 +5119,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -5090,7 +5132,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -5105,7 +5147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -5118,7 +5160,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -5133,7 +5175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5146,7 +5188,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="52" t="s">
         <v>176</v>
       </c>
@@ -5161,7 +5203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5174,7 +5216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5187,7 +5229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="52" t="s">
         <v>168</v>
       </c>
@@ -5202,7 +5244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5215,7 +5257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5228,7 +5270,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
         <v>169</v>
       </c>
@@ -5243,12 +5285,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5256,16 +5298,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5278,12 +5320,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5291,16 +5333,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5313,7 +5355,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5326,7 +5368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="52" t="s">
         <v>106</v>
       </c>
@@ -5341,12 +5383,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5354,21 +5396,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5376,16 +5418,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5398,7 +5440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5411,7 +5453,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="52" t="s">
         <v>104</v>
       </c>
@@ -5426,12 +5468,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5439,16 +5481,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -5461,7 +5503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -5474,35 +5516,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5519,6 +5555,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5530,14 +5572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -5545,12 +5587,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5559,7 +5601,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="60" t="s">
         <v>147</v>
       </c>
@@ -5570,7 +5612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -5579,7 +5621,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -5588,7 +5630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -5597,7 +5639,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5606,7 +5648,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5617,7 +5659,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5628,7 +5670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5650,14 +5692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -5670,7 +5712,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5695,7 +5737,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
+    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -5718,7 +5760,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
+    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -5739,7 +5781,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5752,7 +5794,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -5773,7 +5815,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5786,7 +5828,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -5805,7 +5847,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
+    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -5824,7 +5866,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -5843,7 +5885,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -5860,7 +5902,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -5877,7 +5919,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -5894,7 +5936,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5904,7 +5946,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5914,7 +5956,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="52" t="s">
         <v>166</v>
       </c>
@@ -21158,7 +21200,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
+    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21179,7 +21221,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21200,7 +21242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21221,7 +21263,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21240,7 +21282,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21261,7 +21303,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21282,7 +21324,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21303,7 +21345,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21324,7 +21366,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21345,7 +21387,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21366,7 +21408,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21387,7 +21429,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21408,7 +21450,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -21427,7 +21469,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -21448,7 +21490,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -21469,7 +21511,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -21490,7 +21532,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -21511,7 +21553,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -21532,7 +21574,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -21553,7 +21595,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -21574,7 +21616,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -21595,7 +21637,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -21616,7 +21658,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -21639,7 +21681,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -21662,7 +21704,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -21685,7 +21727,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -21708,7 +21750,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -21731,7 +21773,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -21752,7 +21794,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -21771,7 +21813,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -21790,7 +21832,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -21809,7 +21851,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -21826,7 +21868,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -21843,7 +21885,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -21860,7 +21902,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -21877,7 +21919,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21888,7 +21930,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21899,7 +21941,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="52" t="s">
         <v>175</v>
       </c>
@@ -21918,7 +21960,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -21935,7 +21977,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -21956,7 +21998,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -21973,7 +22015,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -21990,7 +22032,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -22007,7 +22049,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -22024,7 +22066,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -22041,7 +22083,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -22060,7 +22102,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -22077,7 +22119,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -22096,7 +22138,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -22113,7 +22155,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22124,7 +22166,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22135,7 +22177,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
         <v>176</v>
       </c>
@@ -22158,7 +22200,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="61"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22179,7 +22221,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="61"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22196,7 +22238,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22207,7 +22249,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22218,7 +22260,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
         <v>168</v>
       </c>
@@ -22241,7 +22283,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="61"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22262,7 +22304,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="61"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22279,7 +22321,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22290,7 +22332,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22301,7 +22343,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="52" t="s">
         <v>169</v>
       </c>
@@ -22324,7 +22366,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22345,7 +22387,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22358,7 +22400,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
+    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22379,7 +22421,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
+    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22400,7 +22442,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="52"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22413,7 +22455,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -22434,7 +22476,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -22451,7 +22493,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22462,7 +22504,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -22473,7 +22515,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="52" t="s">
         <v>106</v>
       </c>
@@ -22496,7 +22538,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="52"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -22517,7 +22559,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="52"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -22530,7 +22572,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="52"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -22551,7 +22593,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="52"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -22564,7 +22606,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="52"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -22585,7 +22627,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="52"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -22602,7 +22644,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22613,7 +22655,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22624,7 +22666,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="52" t="s">
         <v>104</v>
       </c>
@@ -22647,7 +22689,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -22668,7 +22710,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="52"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -22681,7 +22723,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="52"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -22702,7 +22744,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="52"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -22719,7 +22761,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22730,7 +22772,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22741,7 +22783,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22752,7 +22794,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22763,7 +22805,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22774,7 +22816,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22783,7 +22825,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22792,7 +22834,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22801,7 +22843,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22811,7 +22853,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22821,7 +22863,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22831,7 +22873,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22841,7 +22883,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22851,7 +22893,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22861,7 +22903,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22871,7 +22913,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22881,7 +22923,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22891,7 +22933,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22901,7 +22943,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22911,7 +22953,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22921,7 +22963,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22931,7 +22973,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22941,7 +22983,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22951,7 +22993,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22961,7 +23003,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22971,7 +23013,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22981,7 +23023,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22991,7 +23033,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -23001,7 +23043,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -23011,7 +23053,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -23021,7 +23063,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -23031,7 +23073,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -23041,7 +23083,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -23051,7 +23093,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -23061,7 +23103,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -23071,7 +23113,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23081,7 +23123,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23091,7 +23133,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23101,7 +23143,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23111,7 +23153,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23121,7 +23163,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23131,7 +23173,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23158,14 +23200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView topLeftCell="F7" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -23179,7 +23221,7 @@
     <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23209,7 +23251,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -23241,7 +23283,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23271,7 +23313,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23301,7 +23343,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
@@ -23325,7 +23367,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23353,7 +23395,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23381,7 +23423,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23409,7 +23451,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23431,7 +23473,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -23459,7 +23501,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -23487,7 +23529,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -23515,7 +23557,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -23543,7 +23585,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -23571,7 +23613,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -23599,7 +23641,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -23627,7 +23669,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -23655,7 +23697,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -23675,7 +23717,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -23703,7 +23745,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
@@ -23731,7 +23773,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
@@ -23759,7 +23801,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
@@ -23787,7 +23829,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
@@ -23817,7 +23859,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -23845,7 +23887,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
@@ -23873,7 +23915,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
@@ -23901,7 +23943,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
@@ -23929,7 +23971,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
@@ -23959,7 +24001,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -23989,7 +24031,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -24019,7 +24061,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -24049,7 +24091,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -24079,7 +24121,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -24109,7 +24151,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -24139,7 +24181,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24169,7 +24211,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24199,7 +24241,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24229,7 +24271,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24259,7 +24301,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -24289,7 +24331,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
@@ -24319,7 +24361,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="52" t="s">
         <v>175</v>
       </c>
@@ -24341,7 +24383,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
@@ -24357,7 +24399,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
@@ -24373,7 +24415,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
@@ -24389,7 +24431,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
@@ -24405,7 +24447,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
@@ -24421,7 +24463,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
@@ -24437,7 +24479,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
@@ -24453,7 +24495,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>176</v>
       </c>
@@ -24485,7 +24527,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
@@ -24515,7 +24557,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="52" t="s">
         <v>168</v>
       </c>
@@ -24547,7 +24589,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
@@ -24577,7 +24619,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="121.5">
+    <row r="53" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A53" s="52" t="s">
         <v>169</v>
       </c>
@@ -24609,7 +24651,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
@@ -24639,7 +24681,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
@@ -24669,7 +24711,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
@@ -24699,7 +24741,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -24729,7 +24771,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27">
+    <row r="58" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="52" t="s">
         <v>106</v>
       </c>
@@ -24761,7 +24803,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -24791,7 +24833,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
@@ -24821,7 +24863,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
@@ -24851,7 +24893,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="52" t="s">
         <v>104</v>
       </c>
@@ -24883,7 +24925,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
@@ -24913,7 +24955,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
@@ -24944,7 +24986,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64"/>
+  <autoFilter ref="A1:J64" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -24961,21 +25003,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -24986,7 +25028,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -24997,7 +25039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="62" t="s">
         <v>166</v>
       </c>
@@ -25008,7 +25050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -25017,7 +25059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -25028,7 +25070,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -25039,7 +25081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -25050,7 +25092,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -25061,7 +25103,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -25072,7 +25114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -25083,8 +25125,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="56" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25094,8 +25136,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="59"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25103,7 +25145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -25114,7 +25156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -25125,7 +25167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -25136,7 +25178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -25147,7 +25189,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="63" t="s">
         <v>166</v>
       </c>
@@ -25158,7 +25200,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="63"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -25167,7 +25209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="63"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -25176,7 +25218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="63"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -25185,7 +25227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="63"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -25194,7 +25236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="63"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -25203,7 +25245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="63"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -25212,7 +25254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="63"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -25221,7 +25263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="63"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -25230,7 +25272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="63"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -25239,7 +25281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -25250,7 +25292,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27">
+    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -25261,7 +25303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="63" t="s">
         <v>166</v>
       </c>
@@ -25272,7 +25314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="63"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -25281,7 +25323,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -25292,7 +25334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -25303,7 +25345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -25327,14 +25369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -25358,7 +25400,7 @@
     <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>348</v>
       </c>
@@ -25390,7 +25432,7 @@
       <c r="S1" s="75"/>
       <c r="T1" s="75"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>351</v>
       </c>
@@ -25452,7 +25494,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>399</v>
       </c>
@@ -25496,7 +25538,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>399</v>
       </c>
@@ -25540,7 +25582,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>399</v>
       </c>
@@ -25584,7 +25626,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>399</v>
       </c>
@@ -25628,7 +25670,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -25672,7 +25714,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>399</v>
       </c>
@@ -25716,7 +25758,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>399</v>
       </c>
@@ -25760,7 +25802,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>399</v>
       </c>
@@ -25804,7 +25846,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>399</v>
       </c>
@@ -25848,7 +25890,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>399</v>
       </c>
@@ -25892,7 +25934,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>399</v>
       </c>
@@ -25936,7 +25978,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>399</v>
       </c>
@@ -25980,7 +26022,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>399</v>
       </c>
@@ -26024,7 +26066,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>399</v>
       </c>
@@ -26068,7 +26110,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>399</v>
       </c>
@@ -26112,7 +26154,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>399</v>
       </c>
@@ -26156,7 +26198,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>399</v>
       </c>
@@ -26200,7 +26242,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>399</v>
       </c>
@@ -26244,7 +26286,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>399</v>
       </c>
@@ -26288,7 +26330,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>399</v>
       </c>
@@ -26332,7 +26374,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>399</v>
       </c>
@@ -26376,7 +26418,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>399</v>
       </c>
@@ -26416,7 +26458,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>399</v>
       </c>
@@ -26456,7 +26498,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>399</v>
       </c>
@@ -26496,7 +26538,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>399</v>
       </c>
@@ -26536,7 +26578,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26570,7 +26612,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -26602,7 +26644,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -26636,7 +26678,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -26670,7 +26712,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -26704,7 +26746,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -26738,7 +26780,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -26772,7 +26814,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -26806,7 +26848,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -26840,7 +26882,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -26874,7 +26916,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -26908,7 +26950,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -26942,7 +26984,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -26976,7 +27018,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -27010,7 +27052,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -27044,7 +27086,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -27078,7 +27120,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -27112,7 +27154,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -27146,7 +27188,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -27180,7 +27222,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -27214,7 +27256,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -27248,7 +27290,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -27282,7 +27324,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -27316,7 +27358,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -27344,7 +27386,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -27372,7 +27414,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -27400,7 +27442,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -27428,7 +27470,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -27456,7 +27498,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -27484,7 +27526,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -27512,7 +27554,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -27540,7 +27582,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -27568,7 +27610,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27596,7 +27638,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -27624,7 +27666,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -27652,7 +27694,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27680,7 +27722,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -27708,7 +27750,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27736,7 +27778,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -27764,7 +27806,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -27792,7 +27834,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27820,7 +27862,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -27848,7 +27890,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -27876,7 +27918,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -27904,7 +27946,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -27932,7 +27974,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -27960,7 +28002,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -27988,7 +28030,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -28016,7 +28058,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -28044,7 +28086,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -28072,7 +28114,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28100,7 +28142,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28128,7 +28170,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -28156,7 +28198,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28184,7 +28226,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -28212,7 +28254,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28240,7 +28282,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -28268,7 +28310,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -28296,7 +28338,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28324,7 +28366,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28352,7 +28394,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28380,7 +28422,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -28408,7 +28450,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -28436,7 +28478,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -28464,7 +28506,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -28492,7 +28534,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28520,7 +28562,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28548,7 +28590,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -28576,7 +28618,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -28604,7 +28646,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28632,7 +28674,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28660,7 +28702,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -28688,7 +28730,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28716,7 +28758,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -28744,7 +28786,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -28772,7 +28814,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -28800,7 +28842,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -28828,7 +28870,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -28856,7 +28898,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -28884,7 +28926,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -28912,7 +28954,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -28940,7 +28982,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -28968,7 +29010,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -28996,7 +29038,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -29024,7 +29066,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -29052,7 +29094,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -29080,7 +29122,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -29102,7 +29144,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -29124,7 +29166,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29146,7 +29188,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29168,7 +29210,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -29190,7 +29232,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -29212,7 +29254,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -29234,7 +29276,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -29256,7 +29298,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -29278,7 +29320,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -29300,7 +29342,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -29322,7 +29364,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -29344,7 +29386,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -29366,7 +29408,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -29388,7 +29430,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -29410,7 +29452,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -29432,7 +29474,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -29454,7 +29496,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -29476,7 +29518,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -29498,7 +29540,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -29520,7 +29562,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -29542,7 +29584,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -29564,7 +29606,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -29586,7 +29628,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -29608,7 +29650,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -29630,7 +29672,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -29652,7 +29694,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -29674,7 +29716,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -29696,7 +29738,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -29718,7 +29760,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -29740,7 +29782,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -29776,14 +29818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
@@ -29793,7 +29835,7 @@
     <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -29811,16 +29853,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
-      <c r="A2" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>34</v>
-      </c>
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="52"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>479</v>
       </c>
@@ -29831,14 +29867,10 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54">
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
-      <c r="B3" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
         <v>479</v>
       </c>
@@ -29849,7 +29881,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27">
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
         <v>106</v>
       </c>
@@ -29869,7 +29901,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27">
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="50" t="s">
         <v>217</v>
@@ -29887,7 +29919,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27">
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="50" t="s">
         <v>219</v>
@@ -29905,7 +29937,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27">
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>215</v>
@@ -29923,7 +29955,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27">
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -29943,7 +29975,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="3" t="s">
         <v>181</v>
@@ -29961,7 +29993,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27">
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>172</v>
@@ -29979,7 +30011,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -29987,7 +30019,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="40.5">
+    <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="52" t="s">
         <v>166</v>
       </c>
@@ -30007,7 +30039,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>206</v>
@@ -30025,7 +30057,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="40.5">
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>206</v>
@@ -30056,14 +30088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
@@ -30073,7 +30105,7 @@
     <col min="7" max="7" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -30094,16 +30126,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>34</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="52"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>479</v>
       </c>
@@ -30115,14 +30141,10 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
-      <c r="B3" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
         <v>479</v>
       </c>
@@ -30134,14 +30156,10 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
-      <c r="B4" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>479</v>
       </c>
@@ -30153,14 +30171,10 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
-      <c r="B5" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1" t="s">
         <v>479</v>
       </c>
@@ -30172,14 +30186,10 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
-      <c r="B6" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>479</v>
       </c>
@@ -30191,14 +30201,10 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
-      <c r="B7" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
         <v>479</v>
       </c>
@@ -30210,7 +30216,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>167</v>
@@ -30231,7 +30237,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -30254,7 +30260,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>171</v>
@@ -30275,7 +30281,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27">
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>171</v>
@@ -30296,7 +30302,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>171</v>
@@ -30317,7 +30323,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>171</v>
@@ -30338,7 +30344,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>171</v>
@@ -30359,7 +30365,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>171</v>
@@ -30380,7 +30386,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27">
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>171</v>
@@ -30401,7 +30407,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>171</v>
@@ -30422,7 +30428,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>171</v>
@@ -30443,7 +30449,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27">
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>171</v>
@@ -30464,7 +30470,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27">
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>171</v>
@@ -30485,7 +30491,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27">
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>171</v>
@@ -30506,7 +30512,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>171</v>
@@ -30527,7 +30533,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27">
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
@@ -30548,7 +30554,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27">
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>171</v>
@@ -30569,7 +30575,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27">
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>171</v>
@@ -30590,7 +30596,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27">
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>171</v>
@@ -30611,7 +30617,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>171</v>
@@ -30632,7 +30638,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27">
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>171</v>
@@ -30653,7 +30659,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="27">
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>171</v>
@@ -30674,7 +30680,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27">
+    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>171</v>
@@ -30695,7 +30701,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27">
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>171</v>
@@ -30716,7 +30722,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27">
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>171</v>
@@ -30737,7 +30743,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27">
+    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>171</v>
@@ -30758,7 +30764,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27">
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>171</v>
@@ -30779,7 +30785,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -30788,7 +30794,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -30797,7 +30803,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>167</v>
@@ -30818,7 +30824,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="27">
+    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="52" t="s">
         <v>165</v>
       </c>
@@ -30841,7 +30847,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="27">
+    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>181</v>
@@ -30862,7 +30868,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27">
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>181</v>
@@ -30883,7 +30889,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27">
+    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="3" t="s">
         <v>181</v>
@@ -30904,7 +30910,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27">
+    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>181</v>
@@ -30925,7 +30931,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27">
+    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>181</v>
@@ -30946,7 +30952,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27">
+    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>181</v>
@@ -30967,7 +30973,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27">
+    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -30988,7 +30994,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27">
+    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>181</v>
@@ -31009,7 +31015,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27">
+    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>181</v>
@@ -31030,7 +31036,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27">
+    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>181</v>
@@ -31051,7 +31057,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27">
+    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>181</v>
@@ -31072,7 +31078,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27">
+    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>181</v>
@@ -31093,7 +31099,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27">
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>181</v>
@@ -31114,7 +31120,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27">
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>181</v>
@@ -31135,7 +31141,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27">
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="3" t="s">
         <v>181</v>
@@ -31156,7 +31162,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27">
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>181</v>
@@ -31177,7 +31183,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27">
+    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>181</v>
@@ -31198,7 +31204,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27">
+    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="3" t="s">
         <v>181</v>
@@ -31219,7 +31225,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="27">
+    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>181</v>
@@ -31240,7 +31246,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="27">
+    <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>181</v>
@@ -31261,7 +31267,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="27">
+    <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="52"/>
       <c r="B67" s="3" t="s">
         <v>181</v>
@@ -31282,7 +31288,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="27">
+    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
       <c r="B68" s="3" t="s">
         <v>181</v>
@@ -31303,7 +31309,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27">
+    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
       <c r="B69" s="3" t="s">
         <v>181</v>
@@ -31324,7 +31330,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27">
+    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>181</v>
@@ -31345,7 +31351,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27">
+    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
       <c r="B71" s="3" t="s">
         <v>181</v>
@@ -31366,7 +31372,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -31375,7 +31381,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -31384,7 +31390,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -31405,7 +31411,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="27">
+    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="52" t="s">
         <v>165</v>
       </c>
@@ -31428,7 +31434,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="27">
+    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
       <c r="B79" s="3" t="s">
         <v>172</v>
@@ -31449,7 +31455,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27">
+    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>172</v>
@@ -31470,7 +31476,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="27">
+    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>172</v>
@@ -31491,7 +31497,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="27">
+    <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="52"/>
       <c r="B82" s="3" t="s">
         <v>172</v>
@@ -31512,7 +31518,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="27">
+    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
       <c r="B83" s="3" t="s">
         <v>172</v>
@@ -31533,7 +31539,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="27">
+    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
       <c r="B84" s="3" t="s">
         <v>172</v>
@@ -31554,7 +31560,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="27">
+    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -31575,7 +31581,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="27">
+    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>172</v>
@@ -31596,7 +31602,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27">
+    <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="52"/>
       <c r="B87" s="3" t="s">
         <v>172</v>
@@ -31617,7 +31623,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="27">
+    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="52"/>
       <c r="B88" s="3" t="s">
         <v>172</v>
@@ -31638,7 +31644,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="27">
+    <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="52"/>
       <c r="B89" s="3" t="s">
         <v>172</v>
@@ -31659,7 +31665,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="27">
+    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="52"/>
       <c r="B90" s="3" t="s">
         <v>172</v>
@@ -31680,7 +31686,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="27">
+    <row r="91" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="52"/>
       <c r="B91" s="3" t="s">
         <v>172</v>
@@ -31701,7 +31707,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="27">
+    <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="52"/>
       <c r="B92" s="3" t="s">
         <v>172</v>
@@ -31722,7 +31728,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="27">
+    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="52"/>
       <c r="B93" s="3" t="s">
         <v>172</v>
@@ -31743,7 +31749,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="27">
+    <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="52"/>
       <c r="B94" s="3" t="s">
         <v>172</v>
@@ -31764,7 +31770,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="27">
+    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="52"/>
       <c r="B95" s="3" t="s">
         <v>172</v>
@@ -31785,7 +31791,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="27">
+    <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="52"/>
       <c r="B96" s="3" t="s">
         <v>172</v>
@@ -31806,7 +31812,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="27">
+    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
       <c r="B97" s="3" t="s">
         <v>172</v>
@@ -31827,7 +31833,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="27">
+    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="52"/>
       <c r="B98" s="3" t="s">
         <v>172</v>
@@ -31848,7 +31854,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="27">
+    <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="52"/>
       <c r="B99" s="3" t="s">
         <v>172</v>
@@ -31869,7 +31875,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="27">
+    <row r="100" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="52"/>
       <c r="B100" s="3" t="s">
         <v>172</v>
@@ -31890,7 +31896,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="27">
+    <row r="101" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="52"/>
       <c r="B101" s="3" t="s">
         <v>172</v>
@@ -31911,7 +31917,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="27">
+    <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="52"/>
       <c r="B102" s="3" t="s">
         <v>172</v>
@@ -31932,7 +31938,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="27">
+    <row r="103" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="52"/>
       <c r="B103" s="3" t="s">
         <v>172</v>
@@ -31953,7 +31959,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="52"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -31962,7 +31968,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="52"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -31971,7 +31977,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>167</v>
@@ -31992,7 +31998,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="27">
+    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="52" t="s">
         <v>104</v>
       </c>
@@ -32015,7 +32021,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="27">
+    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="52"/>
       <c r="B111" s="21" t="s">
         <v>189</v>
@@ -32036,7 +32042,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="27">
+    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A112" s="52"/>
       <c r="B112" s="21" t="s">
         <v>187</v>
@@ -32057,7 +32063,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -32078,7 +32084,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="27">
+    <row r="116" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A116" s="52" t="s">
         <v>166</v>
       </c>
@@ -32101,7 +32107,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="27">
+    <row r="117" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="52"/>
       <c r="B117" s="21" t="s">
         <v>206</v>
@@ -32122,7 +32128,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="27">
+    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="52"/>
       <c r="B118" s="21" t="s">
         <v>206</v>
@@ -32143,7 +32149,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="27">
+    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="52"/>
       <c r="B119" s="21" t="s">
         <v>206</v>
@@ -32164,7 +32170,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="27">
+    <row r="120" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="52"/>
       <c r="B120" s="21" t="s">
         <v>206</v>
@@ -32185,7 +32191,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="27">
+    <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="52"/>
       <c r="B121" s="21" t="s">
         <v>206</v>
@@ -32206,7 +32212,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="27">
+    <row r="122" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A122" s="52"/>
       <c r="B122" s="21" t="s">
         <v>206</v>
@@ -32227,7 +32233,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="27">
+    <row r="123" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A123" s="52"/>
       <c r="B123" s="21" t="s">
         <v>206</v>
@@ -32248,7 +32254,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="27">
+    <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="52"/>
       <c r="B124" s="21" t="s">
         <v>206</v>
@@ -32269,7 +32275,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="27">
+    <row r="125" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="52"/>
       <c r="B125" s="21" t="s">
         <v>206</v>
@@ -32290,7 +32296,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="27">
+    <row r="126" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="52"/>
       <c r="B126" s="21" t="s">
         <v>206</v>
@@ -32311,7 +32317,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="27">
+    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="52"/>
       <c r="B127" s="21" t="s">
         <v>206</v>
@@ -32332,7 +32338,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="27">
+    <row r="128" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="52"/>
       <c r="B128" s="21" t="s">
         <v>206</v>
@@ -32353,7 +32359,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1">
+    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="52"/>
       <c r="B129" s="21" t="s">
         <v>206</v>
@@ -32374,7 +32380,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="27">
+    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="52"/>
       <c r="B130" s="21" t="s">
         <v>206</v>
@@ -32395,7 +32401,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="27">
+    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="52"/>
       <c r="B131" s="21" t="s">
         <v>206</v>
@@ -32416,7 +32422,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="27">
+    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="52"/>
       <c r="B132" s="21" t="s">
         <v>206</v>
@@ -32437,7 +32443,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="27">
+    <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="52"/>
       <c r="B133" s="21" t="s">
         <v>206</v>
@@ -32458,7 +32464,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="27">
+    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="52"/>
       <c r="B134" s="21" t="s">
         <v>206</v>
@@ -32479,7 +32485,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="27">
+    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="52"/>
       <c r="B135" s="21" t="s">
         <v>206</v>
@@ -32500,7 +32506,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="27">
+    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="52"/>
       <c r="B136" s="21" t="s">
         <v>206</v>
@@ -32521,7 +32527,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="27">
+    <row r="137" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A137" s="52"/>
       <c r="B137" s="21" t="s">
         <v>206</v>
@@ -32542,7 +32548,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="27">
+    <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="52"/>
       <c r="B138" s="21" t="s">
         <v>206</v>
@@ -32563,7 +32569,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="27">
+    <row r="139" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="52"/>
       <c r="B139" s="21" t="s">
         <v>206</v>
@@ -32584,7 +32590,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="27">
+    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="52"/>
       <c r="B140" s="21" t="s">
         <v>206</v>
@@ -32605,7 +32611,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="27">
+    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="52"/>
       <c r="B141" s="21" t="s">
         <v>206</v>
@@ -32626,7 +32632,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="27">
+    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="52"/>
       <c r="B142" s="21" t="s">
         <v>206</v>
